--- a/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
+++ b/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
+++ b/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="C35" s="23" t="n"/>
       <c r="D35" s="20" t="n">
-        <v>15097</v>
+        <v>32935</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" s="25">
@@ -905,7 +905,7 @@
       </c>
       <c r="C36" s="23" t="n"/>
       <c r="D36" s="20" t="n">
-        <v>3375</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1" s="25">
@@ -966,20 +966,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
+++ b/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
+++ b/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="C35" s="23" t="n"/>
       <c r="D35" s="20" t="n">
-        <v>32935</v>
+        <v>15097</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" s="25">
@@ -905,7 +905,7 @@
       </c>
       <c r="C36" s="23" t="n"/>
       <c r="D36" s="20" t="n">
-        <v>7128</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1" s="25">
@@ -966,20 +966,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
+++ b/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -966,20 +966,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
+++ b/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -966,20 +966,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
+++ b/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -966,20 +966,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
+++ b/server/LISTAS/mi/TENDEDERO CALESITA DISMAY.xlsx
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="26" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="C35" s="23" t="n"/>
       <c r="D35" s="20" t="n">
-        <v>15097</v>
+        <v>32935</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1" s="25">
@@ -905,7 +905,7 @@
       </c>
       <c r="C36" s="23" t="n"/>
       <c r="D36" s="20" t="n">
-        <v>3375</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1" s="25">
@@ -966,20 +966,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
